--- a/evidenciaCaosPrueba.xlsx
+++ b/evidenciaCaosPrueba.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="15" uniqueCount="15">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="58" uniqueCount="35">
   <si>
     <t>Estado</t>
   </si>
@@ -58,16 +58,6 @@
   </si>
   <si>
     <t>CPHU01-07</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Dirigirse a la dirección
-http://localhost:4200/registro-usuario
-Dilgenciar los siguientes campos con la siguiente información
-Documento Identidad = 1023456783
-Nombre = Arturo Enrique
-Primer apellido = M
-Fecha de Nacimiento = 14/05/1997
-</t>
   </si>
   <si>
     <t>Dirigirse a la dirección
@@ -79,6 +69,156 @@
 Segundo apellido = Díaz
 Fecha de Nacimiento = 14/03/1993
 Seleccionar el boton Guardar Datos</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Dirigirse a la dirección
+http://localhost:4200/registro-usuario
+Dilgenciar los siguientes campos con la siguiente información
+Documento Identidad = 1023456783
+Nombre = Arturo Enrique
+Primer apellido = M
+Fecha de Nacimiento = 14/05/1997
+Seleccionar el boton Guardar Datos
+</t>
+  </si>
+  <si>
+    <t>Dirigirse a la dirección
+http://localhost:4200/registro-usuario
+Dilgenciar los siguientes campos con la siguiente información
+Documento Identidad = 1076543894
+Nombre = Lui5
+ Apellido = Martínez
+Fecha de Nacimiento = 14/03/1993
+Seleccionar el boton Guardar Datos</t>
+  </si>
+  <si>
+    <t>Dirigirse a la dirección
+http://localhost:4200/registro-usuario
+Dilgenciar los siguientes campos con la siguiente información
+Documento Identidad = 123
+Nombre = Luis
+Apellido = Calle
+Fecha de Nacimiento = 14/03/1993
+Seleccionar el boton Guardar Datos</t>
+  </si>
+  <si>
+    <t>Dirigirse a la dirección
+http://localhost:4200/registro-usuario
+Dilgenciar los siguientes campos con la siguiente información
+Documento Identidad = 1089706320
+- Nombre = Manuel
+- Apellido = Díaz
+- Fecha de Nacimiento = 23 de diciembre del 83
+Seleccionar el boton Guardar Datos</t>
+  </si>
+  <si>
+    <t>Dirigirse a la dirección
+http://localhost:4200/registro-usuario
+Dilgenciar los siguientes campos con la siguiente información
+Documento Identidad = 1089706320
+- Nombre = Cristian
+- Apellido = Montoya
+- Fecha de Nacimiento = 14/11/2005
+Seleccionar el boton Guardar Datos</t>
+  </si>
+  <si>
+    <t>Dirigirse a la dirección
+http://localhost:4200/registro-usuario
+Dilgenciar los siguientes campos con la siguiente información
+Documento Identidad = 
+Nombre = Carlos
+- Apellido = Duarte
+- Fecha de Nacimiento = 30/10/1990
+Seleccionar el boton Guardar Datos</t>
+  </si>
+  <si>
+    <t>HU02</t>
+  </si>
+  <si>
+    <t>CPHU2-01</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Seguir el caso de prueba CPHU01-01 diligenciando un documento de identidad aleatorio que no este ya registrado en la base de datos
+Diligenciar los siguientes campos con la siguiente información
+Nombre de Empresa = Accenture
+Tipo Nit = Jurídica 
+Nit = 800110980-7
+Salario Actual = 950000
+Fecha de Ingreso = 22/02/2018
+Seleccionar el boton Generar.
+</t>
+  </si>
+  <si>
+    <t>CPHU2-02</t>
+  </si>
+  <si>
+    <t>CPHU2-03</t>
+  </si>
+  <si>
+    <t>CPHU2-04</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Depentiente del 
+caso de rueba </t>
+  </si>
+  <si>
+    <t>Seguir el caso de prueba CPHU01-01 diligenciando un documento de identidad aleatorio que no este ya registrado en la base de datos
+Diligenciar los siguientes campos con la siguiente información
+Nombre de Empresa = Empresa1
+Tipo Nit = Natural 
+Nit = 8736534234
+Salario Actual = tres millones
+Fecha de Ingreso = 01/02/2005
+Seleccionar el boton Generar.</t>
+  </si>
+  <si>
+    <t>Seguir el caso de prueba CPHU01-01 diligenciando un documento de identidad aleatorio que no este ya registrado en la base de datos
+Diligenciar los siguientes campos con la siguiente información
+Nombre de Empresa = E
+Tipo Nit = Jurídica 
+Nit = 800670890-1
+Salario Actual = 2500000
+Fecha de Ingreso = 01/02/2017
+Seleccionar el boton Generar.</t>
+  </si>
+  <si>
+    <t>Seguir el caso de prueba CPHU01-01 diligenciando un documento de identidad aleatorio que no este ya registrado en la base de datos
+Diligenciar los siguientes campos con la siguiente información
+Nombre de Empresa = Emoresa3
+Tipo Nit = Natural 
+Nit = 8006708976
+Salario Actual = 1000000
+Fecha de Ingreso = 1 de enero del 2017
+Seleccionar el boton Generar.</t>
+  </si>
+  <si>
+    <t>CPHU2-05</t>
+  </si>
+  <si>
+    <t>Seguir el caso de prueba CPHU01-01 diligenciando un documento de identidad aleatorio que no este ya registrado en la base de datos
+Diligenciar los siguientes campos con la siguiente información
+Nombre de Empresa = Emoresa5
+Tipo Nit = Jurídica 
+Nit = 500670890-1
+Salario Actual = 8000000
+Fecha de Ingreso = 01/12/2017
+Seleccionar el boton Generar.</t>
+  </si>
+  <si>
+    <t>CPHU2-06</t>
+  </si>
+  <si>
+    <t>Seguir el caso de prueba CPHU01-01 diligenciando un documento de identidad aleatorio que no este ya registrado en la base de datos
+Diligenciar los siguientes campos con la siguiente información
+Nombre de Empresa = Emoresa8
+Tipo Nit = Natural
+Nit = 6007809102
+Salario Actual = 
+Fecha de Ingreso = 11/12/1999
+Seleccionar el boton Generar.</t>
+  </si>
+  <si>
+    <t>N.A</t>
   </si>
 </sst>
 </file>
@@ -114,13 +254,10 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -405,83 +542,225 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E8"/>
+  <dimension ref="A1:F14"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A3" workbookViewId="0">
-      <selection activeCell="D3" sqref="D3"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="F8" sqref="F8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="15.140625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="16.7109375" customWidth="1"/>
-    <col min="3" max="3" width="9.85546875" customWidth="1"/>
-    <col min="4" max="4" width="32.85546875" customWidth="1"/>
-    <col min="5" max="5" width="20.28515625" customWidth="1"/>
+    <col min="2" max="3" width="16.7109375" customWidth="1"/>
+    <col min="4" max="4" width="9.85546875" customWidth="1"/>
+    <col min="5" max="5" width="36" customWidth="1"/>
+    <col min="6" max="6" width="20.28515625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:6" ht="36.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>4</v>
       </c>
       <c r="B1" t="s">
         <v>3</v>
       </c>
-      <c r="C1" t="s">
+      <c r="C1" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="D1" t="s">
         <v>0</v>
       </c>
-      <c r="D1" t="s">
+      <c r="E1" t="s">
         <v>1</v>
       </c>
-      <c r="E1" t="s">
+      <c r="F1" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="2" spans="1:5" ht="171.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="3" t="s">
+    <row r="2" spans="1:6" ht="171.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A2" s="2" t="s">
         <v>5</v>
       </c>
       <c r="B2" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="D2" s="1" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="3" spans="1:5" ht="150" x14ac:dyDescent="0.25">
+      <c r="C2" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="E2" s="1" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" ht="165" x14ac:dyDescent="0.25">
+      <c r="A3" s="2" t="s">
+        <v>5</v>
+      </c>
       <c r="B3" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="D3" s="1" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="C3" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="E3" s="1" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" ht="150" x14ac:dyDescent="0.25">
+      <c r="A4" s="2" t="s">
+        <v>5</v>
+      </c>
       <c r="B4" s="2" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="C4" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="E4" s="1" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" ht="150" x14ac:dyDescent="0.25">
+      <c r="A5" s="2" t="s">
+        <v>5</v>
+      </c>
       <c r="B5" s="2" t="s">
         <v>9</v>
       </c>
-    </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="C5" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="E5" s="1" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6" ht="165" x14ac:dyDescent="0.25">
+      <c r="A6" s="2" t="s">
+        <v>5</v>
+      </c>
       <c r="B6" s="2" t="s">
         <v>10</v>
       </c>
-    </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="C6" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="E6" s="1" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6" ht="165" x14ac:dyDescent="0.25">
+      <c r="A7" s="2" t="s">
+        <v>5</v>
+      </c>
       <c r="B7" s="2" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="C7" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="E7" s="1" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6" ht="165" x14ac:dyDescent="0.25">
+      <c r="A8" s="2" t="s">
+        <v>5</v>
+      </c>
       <c r="B8" s="2" t="s">
         <v>12</v>
       </c>
+      <c r="C8" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="E8" s="1" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6" ht="192" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A9" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="B9" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="C9" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="E9" s="1" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6" ht="183" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A10" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="B10" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="C10" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="E10" s="1" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6" ht="180" x14ac:dyDescent="0.25">
+      <c r="A11" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="B11" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="C11" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="E11" s="1" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6" ht="180" x14ac:dyDescent="0.25">
+      <c r="A12" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="B12" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="C12" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="E12" s="1" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="13" spans="1:6" ht="180" x14ac:dyDescent="0.25">
+      <c r="A13" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="B13" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="C13" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="E13" s="1" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="14" spans="1:6" ht="180" x14ac:dyDescent="0.25">
+      <c r="A14" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="B14" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="C14" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="E14" s="1" t="s">
+        <v>33</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
--- a/evidenciaCaosPrueba.xlsx
+++ b/evidenciaCaosPrueba.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="58" uniqueCount="35">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="71" uniqueCount="36">
   <si>
     <t>Estado</t>
   </si>
@@ -219,6 +219,9 @@
   </si>
   <si>
     <t>N.A</t>
+  </si>
+  <si>
+    <t>Exitoso</t>
   </si>
 </sst>
 </file>
@@ -277,6 +280,661 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>6804</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>462642</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>40821</xdr:colOff>
+      <xdr:row>2</xdr:row>
+      <xdr:rowOff>34932</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="3" name="Picture 2">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{8C5872C5-44DE-4492-BD9B-A42B00EE7922}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1" cstate="print">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="6293304" y="462642"/>
+          <a:ext cx="4020910" cy="2212076"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>48308</xdr:colOff>
+      <xdr:row>1</xdr:row>
+      <xdr:rowOff>2122964</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>27214</xdr:colOff>
+      <xdr:row>2</xdr:row>
+      <xdr:rowOff>1751918</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="5" name="Picture 4">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{49749EC8-438F-43B7-B19B-D4D596FC40AF}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2" cstate="print">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="6334808" y="2585607"/>
+          <a:ext cx="3965799" cy="1806097"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>47626</xdr:colOff>
+      <xdr:row>2</xdr:row>
+      <xdr:rowOff>1658415</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>47624</xdr:colOff>
+      <xdr:row>3</xdr:row>
+      <xdr:rowOff>1577947</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="7" name="Picture 6">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{B2791AFD-10DA-4139-AF4F-9EA2B8A7A016}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId3" cstate="print">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="6357939" y="4325415"/>
+          <a:ext cx="4000498" cy="1824532"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>68035</xdr:colOff>
+      <xdr:row>4</xdr:row>
+      <xdr:rowOff>79073</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>3986892</xdr:colOff>
+      <xdr:row>4</xdr:row>
+      <xdr:rowOff>1686399</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="9" name="Picture 8">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{42A82438-2E4F-4F29-9F2C-ED714BF150EA}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId4" cstate="print">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="6354535" y="6338359"/>
+          <a:ext cx="3918857" cy="1607326"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>40821</xdr:colOff>
+      <xdr:row>5</xdr:row>
+      <xdr:rowOff>122464</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>5</xdr:row>
+      <xdr:rowOff>1798055</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="11" name="Picture 10">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{EC76DDB2-5896-4931-BC34-3EF7F828FB6C}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId5" cstate="print">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="6327321" y="8096250"/>
+          <a:ext cx="3946072" cy="1675591"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>81642</xdr:colOff>
+      <xdr:row>6</xdr:row>
+      <xdr:rowOff>10958</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>3973285</xdr:colOff>
+      <xdr:row>6</xdr:row>
+      <xdr:rowOff>1673678</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="13" name="Picture 12">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{04874D63-46A9-40C1-A59A-47AF3D12D7CD}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId6" cstate="print">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="6368142" y="9889744"/>
+          <a:ext cx="3891643" cy="1662720"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>68036</xdr:colOff>
+      <xdr:row>7</xdr:row>
+      <xdr:rowOff>54428</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>13607</xdr:colOff>
+      <xdr:row>7</xdr:row>
+      <xdr:rowOff>1646464</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="15" name="Picture 14">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{F6D74086-E54C-4F7C-99D5-7897B5929E7F}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId7" cstate="print">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="6354536" y="11647714"/>
+          <a:ext cx="3932464" cy="1592036"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>13606</xdr:colOff>
+      <xdr:row>8</xdr:row>
+      <xdr:rowOff>40820</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>13607</xdr:colOff>
+      <xdr:row>8</xdr:row>
+      <xdr:rowOff>2408464</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="17" name="Picture 16">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{8A69198B-953B-43CA-A3CB-B8751F34D400}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId8" cstate="print">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="6300106" y="13348606"/>
+          <a:ext cx="3986894" cy="2367644"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>27216</xdr:colOff>
+      <xdr:row>9</xdr:row>
+      <xdr:rowOff>54429</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>3973286</xdr:colOff>
+      <xdr:row>9</xdr:row>
+      <xdr:rowOff>2476500</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="21" name="Picture 20">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{EF5EB482-C7AA-4616-A5E8-D8D79EDF1C08}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId9" cstate="print">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="6313716" y="15797893"/>
+          <a:ext cx="3946070" cy="2422071"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>2381249</xdr:colOff>
+      <xdr:row>10</xdr:row>
+      <xdr:rowOff>13607</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>40820</xdr:colOff>
+      <xdr:row>10</xdr:row>
+      <xdr:rowOff>2177142</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="23" name="Picture 22">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{2D8243A9-3E0F-40B6-A07D-BF26E6BE3048}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId10" cstate="print">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="6272892" y="18301607"/>
+          <a:ext cx="4041321" cy="2163535"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>2371727</xdr:colOff>
+      <xdr:row>11</xdr:row>
+      <xdr:rowOff>72119</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>66245</xdr:colOff>
+      <xdr:row>11</xdr:row>
+      <xdr:rowOff>2245179</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="27" name="Picture 26">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{92B135B5-19E9-482A-AE1F-402EFA810E86}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId11" cstate="print">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="6263370" y="20646119"/>
+          <a:ext cx="4076268" cy="2173060"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>68035</xdr:colOff>
+      <xdr:row>12</xdr:row>
+      <xdr:rowOff>2272393</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>49231</xdr:colOff>
+      <xdr:row>13</xdr:row>
+      <xdr:rowOff>2272393</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="31" name="Picture 30">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{FAD705BA-44E2-4966-9C56-DC66960C51C1}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId12" cstate="print">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="6354535" y="25132393"/>
+          <a:ext cx="3968089" cy="2286000"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>40822</xdr:colOff>
+      <xdr:row>12</xdr:row>
+      <xdr:rowOff>54429</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>111519</xdr:colOff>
+      <xdr:row>12</xdr:row>
+      <xdr:rowOff>1904999</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="4" name="Picture 3">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{E4DB698B-393F-4B0D-854C-B058913E6FD9}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId13" cstate="print">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="6327322" y="22914429"/>
+          <a:ext cx="4057590" cy="1850570"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -544,8 +1202,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F14"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F8" sqref="F8"/>
+    <sheetView tabSelected="1" topLeftCell="B1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="I8" sqref="I8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -554,7 +1212,7 @@
     <col min="2" max="3" width="16.7109375" customWidth="1"/>
     <col min="4" max="4" width="9.85546875" customWidth="1"/>
     <col min="5" max="5" width="36" customWidth="1"/>
-    <col min="6" max="6" width="20.28515625" customWidth="1"/>
+    <col min="6" max="6" width="59.85546875" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:6" ht="36.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -587,11 +1245,14 @@
       <c r="C2" s="2" t="s">
         <v>34</v>
       </c>
+      <c r="D2" s="2" t="s">
+        <v>35</v>
+      </c>
       <c r="E2" s="1" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="3" spans="1:6" ht="165" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:6" ht="150" x14ac:dyDescent="0.25">
       <c r="A3" s="2" t="s">
         <v>5</v>
       </c>
@@ -601,11 +1262,14 @@
       <c r="C3" s="2" t="s">
         <v>34</v>
       </c>
+      <c r="D3" s="2" t="s">
+        <v>35</v>
+      </c>
       <c r="E3" s="1" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="4" spans="1:6" ht="150" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:6" ht="135" x14ac:dyDescent="0.25">
       <c r="A4" s="2" t="s">
         <v>5</v>
       </c>
@@ -615,11 +1279,14 @@
       <c r="C4" s="2" t="s">
         <v>34</v>
       </c>
+      <c r="D4" s="2" t="s">
+        <v>35</v>
+      </c>
       <c r="E4" s="1" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="5" spans="1:6" ht="150" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:6" ht="135" x14ac:dyDescent="0.25">
       <c r="A5" s="2" t="s">
         <v>5</v>
       </c>
@@ -629,11 +1296,14 @@
       <c r="C5" s="2" t="s">
         <v>34</v>
       </c>
+      <c r="D5" s="2" t="s">
+        <v>35</v>
+      </c>
       <c r="E5" s="1" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="6" spans="1:6" ht="165" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:6" ht="150" x14ac:dyDescent="0.25">
       <c r="A6" s="2" t="s">
         <v>5</v>
       </c>
@@ -643,11 +1313,14 @@
       <c r="C6" s="2" t="s">
         <v>34</v>
       </c>
+      <c r="D6" s="2" t="s">
+        <v>35</v>
+      </c>
       <c r="E6" s="1" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="7" spans="1:6" ht="165" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:6" ht="135" x14ac:dyDescent="0.25">
       <c r="A7" s="2" t="s">
         <v>5</v>
       </c>
@@ -657,11 +1330,14 @@
       <c r="C7" s="2" t="s">
         <v>34</v>
       </c>
+      <c r="D7" s="2" t="s">
+        <v>35</v>
+      </c>
       <c r="E7" s="1" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="8" spans="1:6" ht="165" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:6" ht="135" x14ac:dyDescent="0.25">
       <c r="A8" s="2" t="s">
         <v>5</v>
       </c>
@@ -670,6 +1346,9 @@
       </c>
       <c r="C8" s="2" t="s">
         <v>34</v>
+      </c>
+      <c r="D8" s="2" t="s">
+        <v>35</v>
       </c>
       <c r="E8" s="1" t="s">
         <v>19</v>
@@ -685,11 +1364,14 @@
       <c r="C9" s="2" t="s">
         <v>6</v>
       </c>
+      <c r="D9" s="2" t="s">
+        <v>35</v>
+      </c>
       <c r="E9" s="1" t="s">
         <v>22</v>
       </c>
     </row>
-    <row r="10" spans="1:6" ht="183" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:6" ht="200.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A10" s="2" t="s">
         <v>20</v>
       </c>
@@ -698,6 +1380,9 @@
       </c>
       <c r="C10" s="2" t="s">
         <v>6</v>
+      </c>
+      <c r="D10" s="2" t="s">
+        <v>35</v>
       </c>
       <c r="E10" s="1" t="s">
         <v>27</v>
@@ -713,6 +1398,9 @@
       <c r="C11" s="2" t="s">
         <v>6</v>
       </c>
+      <c r="D11" s="2" t="s">
+        <v>35</v>
+      </c>
       <c r="E11" s="1" t="s">
         <v>28</v>
       </c>
@@ -727,6 +1415,9 @@
       <c r="C12" s="2" t="s">
         <v>6</v>
       </c>
+      <c r="D12" s="2" t="s">
+        <v>35</v>
+      </c>
       <c r="E12" s="1" t="s">
         <v>29</v>
       </c>
@@ -741,6 +1432,9 @@
       <c r="C13" s="2" t="s">
         <v>6</v>
       </c>
+      <c r="D13" s="2" t="s">
+        <v>35</v>
+      </c>
       <c r="E13" s="1" t="s">
         <v>31</v>
       </c>
@@ -755,6 +1449,9 @@
       <c r="C14" s="2" t="s">
         <v>6</v>
       </c>
+      <c r="D14" s="2" t="s">
+        <v>35</v>
+      </c>
       <c r="E14" s="1" t="s">
         <v>33</v>
       </c>
@@ -762,5 +1459,6 @@
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
+  <drawing r:id="rId2"/>
 </worksheet>
 </file>